--- a/1_general_genetics/1B_tree_analysis/1B_pan_cohort_phylogeny_scMAF.manual.xlsx
+++ b/1_general_genetics/1B_tree_analysis/1B_pan_cohort_phylogeny_scMAF.manual.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mskcc-my.sharepoint.com/personal/zhangh5_mskcc_org/Documents/Iacobuzio_lab/Tapestri_main_manuscript_analysis/1_general_genetics/1B_tree_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9390BF01-DBD0-0940-8B6B-B16C12910FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:40009_{1C4B666E-D18F-7248-9E79-6FD92CDB2824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20400620-694C-6E43-9688-7EE184CC9419}"/>
   <bookViews>
-    <workbookView xWindow="7060" yWindow="2680" windowWidth="27240" windowHeight="16440"/>
+    <workbookView xWindow="7060" yWindow="2680" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1B_pan_cohort_phylogeny_scMAF" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1B_pan_cohort_phylogeny_scMAF'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1B_pan_cohort_phylogeny_scMAF'!$A$1:$F$121</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="55">
   <si>
     <t>patient_name</t>
   </si>
@@ -195,12 +195,18 @@
   </si>
   <si>
     <t>met_case</t>
+  </si>
+  <si>
+    <t>homdel</t>
+  </si>
+  <si>
+    <t>ACVR1B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -699,9 +705,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1067,11 +1074,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2519,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3071,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
@@ -3094,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
@@ -3278,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
@@ -3301,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
@@ -3652,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>43</v>
       </c>
@@ -3675,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>43</v>
       </c>
@@ -3698,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>44</v>
       </c>
@@ -3721,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -3744,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>44</v>
       </c>
@@ -3767,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>44</v>
       </c>
@@ -3790,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>44</v>
       </c>
@@ -3813,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>45</v>
       </c>
@@ -3836,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>45</v>
       </c>
@@ -3859,12 +3866,216 @@
         <v>0</v>
       </c>
     </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" t="s">
+        <v>53</v>
+      </c>
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122" t="s">
+        <v>51</v>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122" s="2"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>53</v>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>29</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>53</v>
+      </c>
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
+      <c r="F124" t="b">
+        <v>1</v>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>29</v>
+      </c>
+      <c r="B125" t="s">
+        <v>54</v>
+      </c>
+      <c r="C125" t="s">
+        <v>53</v>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
+      <c r="F125" t="b">
+        <v>1</v>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>29</v>
+      </c>
+      <c r="B126" t="s">
+        <v>42</v>
+      </c>
+      <c r="C126" t="s">
+        <v>53</v>
+      </c>
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
+      <c r="F126" t="b">
+        <v>1</v>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" t="s">
+        <v>53</v>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
+      <c r="F127" t="b">
+        <v>1</v>
+      </c>
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>34</v>
+      </c>
+      <c r="B128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" t="s">
+        <v>53</v>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>41</v>
+      </c>
+      <c r="B129" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" t="s">
+        <v>53</v>
+      </c>
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129" t="b">
+        <v>0</v>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>44</v>
+      </c>
+      <c r="B130" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" t="s">
+        <v>53</v>
+      </c>
+      <c r="E130" t="b">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>51</v>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H130" s="2"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>45</v>
+      </c>
+      <c r="B131" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" t="s">
+        <v>53</v>
+      </c>
+      <c r="E131" t="b">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>51</v>
+      </c>
+      <c r="G131" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F121">
-      <sortCondition ref="A1:A121"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>"NA"</formula>
